--- a/va_facility_data_2025-02-20/White Plains VA Clinic - Facility Data.xlsx"; filename*=UTF-8''White%20Plains%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/White Plains VA Clinic - Facility Data.xlsx"; filename*=UTF-8''White%20Plains%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Refd8cdc29ddd4cd59e1fdd8504b479da"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R927201b819314f8ab280a49ad181813a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf84fc6e5614f47b7ace8312ec5c18998"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R6e7c094e30bd420c9474076ee50dceb3"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R647aa1e3840644f0b884af43320d71f2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9bb9bfb3cea943fba8fa27ab9ca0b06f"/>
   </x:sheets>
 </x:workbook>
 </file>
